--- a/EOFFICE_HC_CASE_PHONGHOP_REPORT_VIEW_3.xlsx
+++ b/EOFFICE_HC_CASE_PHONGHOP_REPORT_VIEW_3.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AnhPN\ExportLichHop_Mbf\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Result 1" r:id="rId2" sheetId="1"/>
-    <sheet name="Query" r:id="rId3" sheetId="2"/>
+    <sheet name="Result 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Query" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="366">
   <si>
     <t>CASE_MASTER_ID</t>
   </si>
@@ -396,7 +403,7 @@
     <t>Văn phòng</t>
   </si>
   <si>
-    <t>Nguyễn Thị Liên </t>
+    <t>Nguyễn Thị Liên</t>
   </si>
   <si>
     <t>VPTCT-TCT</t>
@@ -1112,4816 +1119,5688 @@
 AND IS_DELETE = 0
 ORDER BY START_TIME ASC</t>
   </si>
+  <si>
+    <t>12340eb6-6d77-4d19-86b8-4d43e86ed407</t>
+  </si>
+  <si>
+    <t>2021-01-29 14:30:00.000000</t>
+  </si>
 </sst>
 </file>
 
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row>
-      <c t="s">
-        <v>0</v>
-      </c>
-      <c t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c t="s">
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c t="s">
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c t="s">
+      <c r="O2" t="s">
         <v>35</v>
       </c>
-      <c t="s">
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c t="s">
+      <c r="Q2" t="s">
         <v>37</v>
       </c>
-      <c t="s">
+      <c r="R2" t="s">
         <v>38</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T2" t="s">
         <v>39</v>
       </c>
-      <c t="s">
+      <c r="U2" t="s">
         <v>39</v>
       </c>
-      <c t="s">
+      <c r="V2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>32</v>
       </c>
-      <c t="s">
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c t="s">
+      <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c t="s">
+      <c r="O3" t="s">
         <v>35</v>
       </c>
-      <c t="s">
+      <c r="P3" t="s">
         <v>42</v>
       </c>
-      <c t="s">
+      <c r="Q3" t="s">
         <v>43</v>
       </c>
-      <c t="s">
+      <c r="R3" t="s">
         <v>38</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T3" t="s">
         <v>39</v>
       </c>
-      <c t="s">
+      <c r="U3" t="s">
         <v>39</v>
       </c>
-      <c t="s">
+      <c r="V3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c t="s">
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c t="s">
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c t="s">
+      <c r="F4" t="s">
         <v>48</v>
       </c>
-      <c t="s">
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c t="s">
+      <c r="J4" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>52</v>
       </c>
-      <c t="s">
+      <c r="M4" t="s">
         <v>53</v>
       </c>
-      <c t="s">
+      <c r="N4" t="s">
         <v>54</v>
       </c>
-      <c t="s">
+      <c r="O4" t="s">
         <v>55</v>
       </c>
-      <c t="s">
+      <c r="P4" t="s">
         <v>56</v>
       </c>
-      <c t="s">
+      <c r="Q4" t="s">
         <v>57</v>
       </c>
-      <c t="s">
+      <c r="R4" t="s">
         <v>58</v>
       </c>
-      <c t="s">
+      <c r="S4" t="s">
         <v>59</v>
       </c>
-      <c t="s">
+      <c r="T4" t="s">
         <v>60</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c t="s">
+      <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c t="s">
+      <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c t="s">
+      <c r="J5" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c t="s">
+      <c r="M5" t="s">
         <v>53</v>
       </c>
-      <c t="s">
+      <c r="N5" t="s">
         <v>62</v>
       </c>
-      <c t="s">
+      <c r="O5" t="s">
         <v>55</v>
       </c>
-      <c t="s">
+      <c r="P5" t="s">
         <v>63</v>
       </c>
-      <c t="s">
+      <c r="Q5" t="s">
         <v>64</v>
       </c>
-      <c t="s">
+      <c r="R5" t="s">
         <v>58</v>
       </c>
-      <c t="s">
+      <c r="S5" t="s">
         <v>59</v>
       </c>
-      <c t="s">
+      <c r="T5" t="s">
         <v>60</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c t="s">
+      <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>67</v>
       </c>
-      <c t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c t="s">
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>68</v>
       </c>
-      <c t="s">
+      <c r="M6" t="s">
         <v>69</v>
       </c>
-      <c t="s">
+      <c r="N6" t="s">
         <v>41</v>
       </c>
-      <c t="s">
+      <c r="O6" t="s">
         <v>70</v>
       </c>
-      <c t="s">
+      <c r="P6" t="s">
         <v>42</v>
       </c>
-      <c t="s">
+      <c r="Q6" t="s">
         <v>43</v>
       </c>
-      <c t="s">
+      <c r="R6" t="s">
         <v>71</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T6" t="s">
         <v>72</v>
       </c>
-      <c t="s">
+      <c r="U6" t="s">
         <v>72</v>
       </c>
-      <c t="s">
+      <c r="V6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>73</v>
       </c>
-      <c t="s">
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>75</v>
       </c>
-      <c t="s">
+      <c r="E7" t="s">
         <v>76</v>
       </c>
-      <c t="s">
+      <c r="F7" t="s">
         <v>77</v>
       </c>
-      <c t="s">
+      <c r="G7" t="s">
         <v>78</v>
       </c>
-      <c t="s">
+      <c r="H7" t="s">
         <v>79</v>
       </c>
-      <c t="s">
+      <c r="I7" t="s">
         <v>80</v>
       </c>
-      <c t="s">
+      <c r="J7" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>81</v>
       </c>
-      <c t="s">
+      <c r="M7" t="s">
         <v>82</v>
       </c>
-      <c t="s">
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c t="s">
+      <c r="O7" t="s">
         <v>84</v>
       </c>
-      <c t="s">
+      <c r="P7" t="s">
         <v>85</v>
       </c>
-      <c t="s">
+      <c r="Q7" t="s">
         <v>86</v>
       </c>
-      <c t="s">
+      <c r="R7" t="s">
         <v>58</v>
       </c>
-      <c t="s">
+      <c r="S7" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="T7" t="s">
         <v>60</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>73</v>
       </c>
-      <c t="s">
+      <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c t="s">
+      <c r="E8" t="s">
         <v>76</v>
       </c>
-      <c t="s">
+      <c r="F8" t="s">
         <v>77</v>
       </c>
-      <c t="s">
+      <c r="G8" t="s">
         <v>78</v>
       </c>
-      <c t="s">
+      <c r="H8" t="s">
         <v>79</v>
       </c>
-      <c t="s">
+      <c r="I8" t="s">
         <v>80</v>
       </c>
-      <c t="s">
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>81</v>
       </c>
-      <c t="s">
+      <c r="M8" t="s">
         <v>82</v>
       </c>
-      <c t="s">
+      <c r="N8" t="s">
         <v>88</v>
       </c>
-      <c t="s">
+      <c r="O8" t="s">
         <v>84</v>
       </c>
-      <c t="s">
+      <c r="P8" t="s">
         <v>89</v>
       </c>
-      <c t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c t="s">
+      <c r="R8" t="s">
         <v>58</v>
       </c>
-      <c t="s">
+      <c r="S8" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="T8" t="s">
         <v>60</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>91</v>
       </c>
-      <c t="s">
+      <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>93</v>
       </c>
-      <c t="s">
+      <c r="E9" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F9" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G9" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>98</v>
       </c>
-      <c t="s">
+      <c r="M9" t="s">
         <v>99</v>
       </c>
-      <c t="s">
+      <c r="N9" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="O9" t="s">
         <v>101</v>
       </c>
-      <c t="s">
+      <c r="P9" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="Q9" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="R9" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T9" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>106</v>
       </c>
-      <c t="s">
+      <c r="B10" t="s">
         <v>107</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>108</v>
       </c>
-      <c t="s">
+      <c r="E10" t="s">
         <v>109</v>
       </c>
-      <c t="s">
+      <c r="F10" t="s">
         <v>110</v>
       </c>
-      <c t="s">
+      <c r="G10" t="s">
         <v>111</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
         <v>112</v>
       </c>
-      <c t="s">
+      <c r="J10" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>113</v>
       </c>
-      <c t="s">
+      <c r="M10" t="s">
         <v>114</v>
       </c>
-      <c t="s">
+      <c r="N10" t="s">
         <v>115</v>
       </c>
-      <c t="s">
+      <c r="O10" t="s">
         <v>116</v>
       </c>
-      <c t="s">
+      <c r="P10" t="s">
         <v>117</v>
       </c>
-      <c t="s">
+      <c r="Q10" t="s">
         <v>118</v>
       </c>
-      <c t="s">
+      <c r="R10" t="s">
         <v>119</v>
       </c>
-      <c t="s">
+      <c r="S10" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="T10" t="s">
         <v>120</v>
       </c>
-      <c t="s">
+      <c r="U10" t="s">
         <v>121</v>
       </c>
-      <c t="s">
+      <c r="V10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>122</v>
       </c>
-      <c t="s">
+      <c r="B11" t="s">
         <v>123</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>124</v>
       </c>
-      <c t="s">
+      <c r="E11" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F11" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G11" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J11" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
         <v>129</v>
       </c>
-      <c t="s">
+      <c r="M11" t="s">
         <v>130</v>
       </c>
-      <c t="s">
+      <c r="N11" t="s">
         <v>131</v>
       </c>
-      <c t="s">
+      <c r="O11" t="s">
         <v>132</v>
       </c>
-      <c t="s">
+      <c r="P11" t="s">
         <v>133</v>
       </c>
-      <c t="s">
+      <c r="Q11" t="s">
         <v>134</v>
       </c>
-      <c t="s">
+      <c r="R11" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T11" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U11" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>122</v>
       </c>
-      <c t="s">
+      <c r="B12" t="s">
         <v>123</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>124</v>
       </c>
-      <c t="s">
+      <c r="E12" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F12" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G12" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J12" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>129</v>
       </c>
-      <c t="s">
+      <c r="M12" t="s">
         <v>130</v>
       </c>
-      <c t="s">
+      <c r="N12" t="s">
         <v>138</v>
       </c>
-      <c t="s">
+      <c r="O12" t="s">
         <v>132</v>
       </c>
-      <c t="s">
+      <c r="P12" t="s">
         <v>139</v>
       </c>
-      <c t="s">
+      <c r="Q12" t="s">
         <v>140</v>
       </c>
-      <c t="s">
+      <c r="R12" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T12" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U12" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>122</v>
       </c>
-      <c t="s">
+      <c r="B13" t="s">
         <v>123</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>124</v>
       </c>
-      <c t="s">
+      <c r="E13" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F13" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G13" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>129</v>
       </c>
-      <c t="s">
+      <c r="M13" t="s">
         <v>130</v>
       </c>
-      <c t="s">
+      <c r="N13" t="s">
         <v>141</v>
       </c>
-      <c t="s">
+      <c r="O13" t="s">
         <v>132</v>
       </c>
-      <c t="s">
+      <c r="P13" t="s">
         <v>142</v>
       </c>
-      <c t="s">
+      <c r="Q13" t="s">
         <v>143</v>
       </c>
-      <c t="s">
+      <c r="R13" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T13" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U13" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>122</v>
       </c>
-      <c t="s">
+      <c r="B14" t="s">
         <v>123</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>124</v>
       </c>
-      <c t="s">
+      <c r="E14" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F14" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G14" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J14" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
         <v>129</v>
       </c>
-      <c t="s">
+      <c r="M14" t="s">
         <v>130</v>
       </c>
-      <c t="s">
+      <c r="N14" t="s">
         <v>144</v>
       </c>
-      <c t="s">
+      <c r="O14" t="s">
         <v>132</v>
       </c>
-      <c t="s">
+      <c r="P14" t="s">
         <v>145</v>
       </c>
-      <c t="s">
+      <c r="Q14" t="s">
         <v>146</v>
       </c>
-      <c t="s">
+      <c r="R14" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T14" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U14" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>147</v>
       </c>
-      <c t="s">
+      <c r="B15" t="s">
         <v>148</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E15" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F15" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G15" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
         <v>154</v>
       </c>
-      <c t="s">
+      <c r="M15" t="s">
         <v>155</v>
       </c>
-      <c t="s">
+      <c r="N15" t="s">
         <v>138</v>
       </c>
-      <c t="s">
+      <c r="O15" t="s">
         <v>156</v>
       </c>
-      <c t="s">
+      <c r="P15" t="s">
         <v>139</v>
       </c>
-      <c t="s">
+      <c r="Q15" t="s">
         <v>140</v>
       </c>
-      <c t="s">
+      <c r="R15" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T15" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U15" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>147</v>
       </c>
-      <c t="s">
+      <c r="B16" t="s">
         <v>148</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E16" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F16" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G16" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
         <v>154</v>
       </c>
-      <c t="s">
+      <c r="M16" t="s">
         <v>155</v>
       </c>
-      <c t="s">
+      <c r="N16" t="s">
         <v>141</v>
       </c>
-      <c t="s">
+      <c r="O16" t="s">
         <v>156</v>
       </c>
-      <c t="s">
+      <c r="P16" t="s">
         <v>142</v>
       </c>
-      <c t="s">
+      <c r="Q16" t="s">
         <v>143</v>
       </c>
-      <c t="s">
+      <c r="R16" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T16" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U16" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>147</v>
       </c>
-      <c t="s">
+      <c r="B17" t="s">
         <v>148</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E17" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F17" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G17" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J17" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
         <v>154</v>
       </c>
-      <c t="s">
+      <c r="M17" t="s">
         <v>155</v>
       </c>
-      <c t="s">
+      <c r="N17" t="s">
         <v>160</v>
       </c>
-      <c t="s">
+      <c r="O17" t="s">
         <v>156</v>
       </c>
-      <c t="s">
+      <c r="P17" t="s">
         <v>161</v>
       </c>
-      <c t="s">
+      <c r="Q17" t="s">
         <v>162</v>
       </c>
-      <c t="s">
+      <c r="R17" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T17" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U17" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>147</v>
       </c>
-      <c t="s">
+      <c r="B18" t="s">
         <v>148</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E18" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F18" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G18" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J18" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>154</v>
       </c>
-      <c t="s">
+      <c r="M18" t="s">
         <v>155</v>
       </c>
-      <c t="s">
+      <c r="N18" t="s">
         <v>144</v>
       </c>
-      <c t="s">
+      <c r="O18" t="s">
         <v>156</v>
       </c>
-      <c t="s">
+      <c r="P18" t="s">
         <v>145</v>
       </c>
-      <c t="s">
+      <c r="Q18" t="s">
         <v>146</v>
       </c>
-      <c t="s">
+      <c r="R18" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T18" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U18" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>147</v>
       </c>
-      <c t="s">
+      <c r="B19" t="s">
         <v>148</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E19" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F19" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G19" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
         <v>154</v>
       </c>
-      <c t="s">
+      <c r="M19" t="s">
         <v>155</v>
       </c>
-      <c t="s">
+      <c r="N19" t="s">
         <v>131</v>
       </c>
-      <c t="s">
+      <c r="O19" t="s">
         <v>156</v>
       </c>
-      <c t="s">
+      <c r="P19" t="s">
         <v>133</v>
       </c>
-      <c t="s">
+      <c r="Q19" t="s">
         <v>134</v>
       </c>
-      <c t="s">
+      <c r="R19" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T19" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U19" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>147</v>
       </c>
-      <c t="s">
+      <c r="B20" t="s">
         <v>148</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E20" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F20" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G20" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J20" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
         <v>154</v>
       </c>
-      <c t="s">
+      <c r="M20" t="s">
         <v>155</v>
       </c>
-      <c t="s">
+      <c r="N20" t="s">
         <v>163</v>
       </c>
-      <c t="s">
+      <c r="O20" t="s">
         <v>156</v>
       </c>
-      <c t="s">
+      <c r="P20" t="s">
         <v>164</v>
       </c>
-      <c t="s">
+      <c r="Q20" t="s">
         <v>165</v>
       </c>
-      <c t="s">
+      <c r="R20" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T20" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U20" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>166</v>
       </c>
-      <c t="s">
+      <c r="B21" t="s">
         <v>167</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
         <v>168</v>
       </c>
-      <c t="s">
+      <c r="E21" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F21" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G21" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J21" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
         <v>169</v>
       </c>
-      <c t="s">
+      <c r="M21" t="s">
         <v>170</v>
       </c>
-      <c t="s">
+      <c r="N21" t="s">
         <v>138</v>
       </c>
-      <c t="s">
+      <c r="O21" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="P21" t="s">
         <v>139</v>
       </c>
-      <c t="s">
+      <c r="Q21" t="s">
         <v>140</v>
       </c>
-      <c t="s">
+      <c r="R21" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T21" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U21" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>166</v>
       </c>
-      <c t="s">
+      <c r="B22" t="s">
         <v>167</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
         <v>168</v>
       </c>
-      <c t="s">
+      <c r="E22" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F22" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G22" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J22" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
         <v>169</v>
       </c>
-      <c t="s">
+      <c r="M22" t="s">
         <v>170</v>
       </c>
-      <c t="s">
+      <c r="N22" t="s">
         <v>131</v>
       </c>
-      <c t="s">
+      <c r="O22" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="P22" t="s">
         <v>133</v>
       </c>
-      <c t="s">
+      <c r="Q22" t="s">
         <v>134</v>
       </c>
-      <c t="s">
+      <c r="R22" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T22" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U22" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>166</v>
       </c>
-      <c t="s">
+      <c r="B23" t="s">
         <v>167</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
         <v>168</v>
       </c>
-      <c t="s">
+      <c r="E23" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F23" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G23" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J23" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
         <v>169</v>
       </c>
-      <c t="s">
+      <c r="M23" t="s">
         <v>170</v>
       </c>
-      <c t="s">
+      <c r="N23" t="s">
         <v>144</v>
       </c>
-      <c t="s">
+      <c r="O23" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="P23" t="s">
         <v>145</v>
       </c>
-      <c t="s">
+      <c r="Q23" t="s">
         <v>146</v>
       </c>
-      <c t="s">
+      <c r="R23" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T23" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U23" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>166</v>
       </c>
-      <c t="s">
+      <c r="B24" t="s">
         <v>167</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
         <v>168</v>
       </c>
-      <c t="s">
+      <c r="E24" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F24" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G24" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J24" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
         <v>169</v>
       </c>
-      <c t="s">
+      <c r="M24" t="s">
         <v>170</v>
       </c>
-      <c t="s">
+      <c r="N24" t="s">
         <v>163</v>
       </c>
-      <c t="s">
+      <c r="O24" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="P24" t="s">
         <v>164</v>
       </c>
-      <c t="s">
+      <c r="Q24" t="s">
         <v>165</v>
       </c>
-      <c t="s">
+      <c r="R24" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T24" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U24" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>166</v>
       </c>
-      <c t="s">
+      <c r="B25" t="s">
         <v>167</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
         <v>168</v>
       </c>
-      <c t="s">
+      <c r="E25" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F25" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G25" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J25" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
         <v>169</v>
       </c>
-      <c t="s">
+      <c r="M25" t="s">
         <v>170</v>
       </c>
-      <c t="s">
+      <c r="N25" t="s">
         <v>160</v>
       </c>
-      <c t="s">
+      <c r="O25" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="P25" t="s">
         <v>161</v>
       </c>
-      <c t="s">
+      <c r="Q25" t="s">
         <v>162</v>
       </c>
-      <c t="s">
+      <c r="R25" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T25" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U25" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>166</v>
       </c>
-      <c t="s">
+      <c r="B26" t="s">
         <v>167</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
         <v>168</v>
       </c>
-      <c t="s">
+      <c r="E26" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F26" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G26" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J26" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
         <v>169</v>
       </c>
-      <c t="s">
+      <c r="M26" t="s">
         <v>170</v>
       </c>
-      <c t="s">
+      <c r="N26" t="s">
         <v>172</v>
       </c>
-      <c t="s">
+      <c r="O26" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="P26" t="s">
         <v>173</v>
       </c>
-      <c t="s">
+      <c r="Q26" t="s">
         <v>174</v>
       </c>
-      <c t="s">
+      <c r="R26" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T26" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U26" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>166</v>
       </c>
-      <c t="s">
+      <c r="B27" t="s">
         <v>167</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
         <v>168</v>
       </c>
-      <c t="s">
+      <c r="E27" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F27" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G27" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J27" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
         <v>169</v>
       </c>
-      <c t="s">
+      <c r="M27" t="s">
         <v>170</v>
       </c>
-      <c t="s">
+      <c r="N27" t="s">
         <v>141</v>
       </c>
-      <c t="s">
+      <c r="O27" t="s">
         <v>171</v>
       </c>
-      <c t="s">
+      <c r="P27" t="s">
         <v>142</v>
       </c>
-      <c t="s">
+      <c r="Q27" t="s">
         <v>143</v>
       </c>
-      <c t="s">
+      <c r="R27" t="s">
         <v>135</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T27" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U27" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>175</v>
       </c>
-      <c t="s">
+      <c r="B28" t="s">
         <v>176</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
         <v>177</v>
       </c>
-      <c t="s">
+      <c r="E28" t="s">
         <v>109</v>
       </c>
-      <c t="s">
+      <c r="F28" t="s">
         <v>110</v>
       </c>
-      <c t="s">
+      <c r="G28" t="s">
         <v>111</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
         <v>112</v>
       </c>
-      <c t="s">
+      <c r="J28" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
         <v>178</v>
       </c>
-      <c t="s">
+      <c r="M28" t="s">
         <v>179</v>
       </c>
-      <c t="s">
+      <c r="N28" t="s">
         <v>180</v>
       </c>
-      <c t="s">
+      <c r="O28" t="s">
         <v>181</v>
       </c>
-      <c t="s">
+      <c r="P28" t="s">
         <v>182</v>
       </c>
-      <c t="s">
+      <c r="Q28" t="s">
         <v>183</v>
       </c>
-      <c t="s">
+      <c r="R28" t="s">
         <v>184</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T28" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="U28" t="s">
         <v>186</v>
       </c>
-      <c t="s">
+      <c r="V28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>175</v>
       </c>
-      <c t="s">
+      <c r="B29" t="s">
         <v>176</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
         <v>177</v>
       </c>
-      <c t="s">
+      <c r="E29" t="s">
         <v>109</v>
       </c>
-      <c t="s">
+      <c r="F29" t="s">
         <v>110</v>
       </c>
-      <c t="s">
+      <c r="G29" t="s">
         <v>111</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="s">
         <v>112</v>
       </c>
-      <c t="s">
+      <c r="J29" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
         <v>178</v>
       </c>
-      <c t="s">
+      <c r="M29" t="s">
         <v>179</v>
       </c>
-      <c t="s">
+      <c r="N29" t="s">
         <v>187</v>
       </c>
-      <c t="s">
+      <c r="O29" t="s">
         <v>181</v>
       </c>
-      <c t="s">
+      <c r="P29" t="s">
         <v>188</v>
       </c>
-      <c t="s">
+      <c r="Q29" t="s">
         <v>189</v>
       </c>
-      <c t="s">
+      <c r="R29" t="s">
         <v>184</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T29" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="U29" t="s">
         <v>186</v>
       </c>
-      <c t="s">
+      <c r="V29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>175</v>
       </c>
-      <c t="s">
+      <c r="B30" t="s">
         <v>176</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
         <v>177</v>
       </c>
-      <c t="s">
+      <c r="E30" t="s">
         <v>109</v>
       </c>
-      <c t="s">
+      <c r="F30" t="s">
         <v>110</v>
       </c>
-      <c t="s">
+      <c r="G30" t="s">
         <v>111</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="s">
         <v>112</v>
       </c>
-      <c t="s">
+      <c r="J30" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
         <v>178</v>
       </c>
-      <c t="s">
+      <c r="M30" t="s">
         <v>179</v>
       </c>
-      <c t="s">
+      <c r="N30" t="s">
         <v>115</v>
       </c>
-      <c t="s">
+      <c r="O30" t="s">
         <v>181</v>
       </c>
-      <c t="s">
+      <c r="P30" t="s">
         <v>117</v>
       </c>
-      <c t="s">
+      <c r="Q30" t="s">
         <v>118</v>
       </c>
-      <c t="s">
+      <c r="R30" t="s">
         <v>184</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T30" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="U30" t="s">
         <v>186</v>
       </c>
-      <c t="s">
+      <c r="V30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>175</v>
       </c>
-      <c t="s">
+      <c r="B31" t="s">
         <v>176</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
         <v>177</v>
       </c>
-      <c t="s">
+      <c r="E31" t="s">
         <v>109</v>
       </c>
-      <c t="s">
+      <c r="F31" t="s">
         <v>110</v>
       </c>
-      <c t="s">
+      <c r="G31" t="s">
         <v>111</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
         <v>112</v>
       </c>
-      <c t="s">
+      <c r="J31" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
         <v>178</v>
       </c>
-      <c t="s">
+      <c r="M31" t="s">
         <v>179</v>
       </c>
-      <c t="s">
+      <c r="N31" t="s">
         <v>190</v>
       </c>
-      <c t="s">
+      <c r="O31" t="s">
         <v>181</v>
       </c>
-      <c t="s">
+      <c r="P31" t="s">
         <v>191</v>
       </c>
-      <c t="s">
+      <c r="Q31" t="s">
         <v>192</v>
       </c>
-      <c t="s">
+      <c r="R31" t="s">
         <v>184</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T31" t="s">
         <v>185</v>
       </c>
-      <c t="s">
+      <c r="U31" t="s">
         <v>186</v>
       </c>
-      <c t="s">
+      <c r="V31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>193</v>
       </c>
-      <c t="s">
+      <c r="B32" t="s">
         <v>194</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
         <v>195</v>
       </c>
-      <c t="s">
+      <c r="E32" t="s">
         <v>109</v>
       </c>
-      <c t="s">
+      <c r="F32" t="s">
         <v>110</v>
       </c>
-      <c t="s">
+      <c r="G32" t="s">
         <v>111</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="s">
         <v>112</v>
       </c>
-      <c t="s">
+      <c r="J32" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
         <v>196</v>
       </c>
-      <c t="s">
+      <c r="M32" t="s">
         <v>197</v>
       </c>
-      <c t="s">
+      <c r="N32" t="s">
         <v>187</v>
       </c>
-      <c t="s">
+      <c r="O32" t="s">
         <v>198</v>
       </c>
-      <c t="s">
+      <c r="P32" t="s">
         <v>188</v>
       </c>
-      <c t="s">
+      <c r="Q32" t="s">
         <v>189</v>
       </c>
-      <c t="s">
+      <c r="R32" t="s">
         <v>119</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T32" t="s">
         <v>120</v>
       </c>
-      <c t="s">
+      <c r="U32" t="s">
         <v>121</v>
       </c>
-      <c t="s">
+      <c r="V32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="B33" t="s">
         <v>200</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
         <v>201</v>
       </c>
-      <c t="s">
+      <c r="E33" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F33" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G33" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J33" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
         <v>202</v>
       </c>
-      <c t="s">
+      <c r="M33" t="s">
         <v>203</v>
       </c>
-      <c t="s">
+      <c r="N33" t="s">
         <v>141</v>
       </c>
-      <c t="s">
+      <c r="O33" t="s">
         <v>204</v>
       </c>
-      <c t="s">
+      <c r="P33" t="s">
         <v>142</v>
       </c>
-      <c t="s">
+      <c r="Q33" t="s">
         <v>143</v>
       </c>
-      <c t="s">
+      <c r="R33" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T33" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U33" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="B34" t="s">
         <v>200</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
         <v>201</v>
       </c>
-      <c t="s">
+      <c r="E34" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F34" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G34" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J34" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
         <v>202</v>
       </c>
-      <c t="s">
+      <c r="M34" t="s">
         <v>203</v>
       </c>
-      <c t="s">
+      <c r="N34" t="s">
         <v>163</v>
       </c>
-      <c t="s">
+      <c r="O34" t="s">
         <v>204</v>
       </c>
-      <c t="s">
+      <c r="P34" t="s">
         <v>164</v>
       </c>
-      <c t="s">
+      <c r="Q34" t="s">
         <v>165</v>
       </c>
-      <c t="s">
+      <c r="R34" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T34" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U34" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="B35" t="s">
         <v>200</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
         <v>201</v>
       </c>
-      <c t="s">
+      <c r="E35" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F35" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G35" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J35" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
         <v>202</v>
       </c>
-      <c t="s">
+      <c r="M35" t="s">
         <v>203</v>
       </c>
-      <c t="s">
+      <c r="N35" t="s">
         <v>131</v>
       </c>
-      <c t="s">
+      <c r="O35" t="s">
         <v>204</v>
       </c>
-      <c t="s">
+      <c r="P35" t="s">
         <v>133</v>
       </c>
-      <c t="s">
+      <c r="Q35" t="s">
         <v>134</v>
       </c>
-      <c t="s">
+      <c r="R35" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T35" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U35" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>199</v>
       </c>
-      <c t="s">
+      <c r="B36" t="s">
         <v>200</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
         <v>201</v>
       </c>
-      <c t="s">
+      <c r="E36" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F36" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G36" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J36" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
         <v>202</v>
       </c>
-      <c t="s">
+      <c r="M36" t="s">
         <v>203</v>
       </c>
-      <c t="s">
+      <c r="N36" t="s">
         <v>138</v>
       </c>
-      <c t="s">
+      <c r="O36" t="s">
         <v>204</v>
       </c>
-      <c t="s">
+      <c r="P36" t="s">
         <v>139</v>
       </c>
-      <c t="s">
+      <c r="Q36" t="s">
         <v>140</v>
       </c>
-      <c t="s">
+      <c r="R36" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T36" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U36" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>205</v>
       </c>
-      <c t="s">
+      <c r="B37" t="s">
         <v>206</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E37" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F37" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G37" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J37" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
         <v>207</v>
       </c>
-      <c t="s">
+      <c r="M37" t="s">
         <v>208</v>
       </c>
-      <c t="s">
+      <c r="N37" t="s">
         <v>163</v>
       </c>
-      <c t="s">
+      <c r="O37" t="s">
         <v>209</v>
       </c>
-      <c t="s">
+      <c r="P37" t="s">
         <v>164</v>
       </c>
-      <c t="s">
+      <c r="Q37" t="s">
         <v>165</v>
       </c>
-      <c t="s">
+      <c r="R37" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T37" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U37" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>205</v>
       </c>
-      <c t="s">
+      <c r="B38" t="s">
         <v>206</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E38" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F38" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G38" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J38" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
         <v>207</v>
       </c>
-      <c t="s">
+      <c r="M38" t="s">
         <v>208</v>
       </c>
-      <c t="s">
+      <c r="N38" t="s">
         <v>144</v>
       </c>
-      <c t="s">
+      <c r="O38" t="s">
         <v>209</v>
       </c>
-      <c t="s">
+      <c r="P38" t="s">
         <v>145</v>
       </c>
-      <c t="s">
+      <c r="Q38" t="s">
         <v>146</v>
       </c>
-      <c t="s">
+      <c r="R38" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T38" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U38" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>205</v>
       </c>
-      <c t="s">
+      <c r="B39" t="s">
         <v>206</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E39" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F39" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G39" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J39" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
         <v>207</v>
       </c>
-      <c t="s">
+      <c r="M39" t="s">
         <v>208</v>
       </c>
-      <c t="s">
+      <c r="N39" t="s">
         <v>138</v>
       </c>
-      <c t="s">
+      <c r="O39" t="s">
         <v>209</v>
       </c>
-      <c t="s">
+      <c r="P39" t="s">
         <v>139</v>
       </c>
-      <c t="s">
+      <c r="Q39" t="s">
         <v>140</v>
       </c>
-      <c t="s">
+      <c r="R39" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T39" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U39" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>205</v>
       </c>
-      <c t="s">
+      <c r="B40" t="s">
         <v>206</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E40" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F40" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G40" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J40" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
         <v>207</v>
       </c>
-      <c t="s">
+      <c r="M40" t="s">
         <v>208</v>
       </c>
-      <c t="s">
+      <c r="N40" t="s">
         <v>160</v>
       </c>
-      <c t="s">
+      <c r="O40" t="s">
         <v>209</v>
       </c>
-      <c t="s">
+      <c r="P40" t="s">
         <v>161</v>
       </c>
-      <c t="s">
+      <c r="Q40" t="s">
         <v>162</v>
       </c>
-      <c t="s">
+      <c r="R40" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T40" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U40" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>205</v>
       </c>
-      <c t="s">
+      <c r="B41" t="s">
         <v>206</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E41" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F41" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G41" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J41" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
         <v>207</v>
       </c>
-      <c t="s">
+      <c r="M41" t="s">
         <v>208</v>
       </c>
-      <c t="s">
+      <c r="N41" t="s">
         <v>131</v>
       </c>
-      <c t="s">
+      <c r="O41" t="s">
         <v>209</v>
       </c>
-      <c t="s">
+      <c r="P41" t="s">
         <v>133</v>
       </c>
-      <c t="s">
+      <c r="Q41" t="s">
         <v>134</v>
       </c>
-      <c t="s">
+      <c r="R41" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T41" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U41" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>205</v>
       </c>
-      <c t="s">
+      <c r="B42" t="s">
         <v>206</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
         <v>149</v>
       </c>
-      <c t="s">
+      <c r="E42" t="s">
         <v>150</v>
       </c>
-      <c t="s">
+      <c r="F42" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G42" t="s">
         <v>152</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J42" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
         <v>207</v>
       </c>
-      <c t="s">
+      <c r="M42" t="s">
         <v>208</v>
       </c>
-      <c t="s">
+      <c r="N42" t="s">
         <v>141</v>
       </c>
-      <c t="s">
+      <c r="O42" t="s">
         <v>209</v>
       </c>
-      <c t="s">
+      <c r="P42" t="s">
         <v>142</v>
       </c>
-      <c t="s">
+      <c r="Q42" t="s">
         <v>143</v>
       </c>
-      <c t="s">
+      <c r="R42" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T42" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U42" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>210</v>
       </c>
-      <c t="s">
+      <c r="B43" t="s">
         <v>211</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
         <v>212</v>
       </c>
-      <c t="s">
+      <c r="E43" t="s">
         <v>109</v>
       </c>
-      <c t="s">
+      <c r="F43" t="s">
         <v>110</v>
       </c>
-      <c t="s">
+      <c r="G43" t="s">
         <v>111</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s">
         <v>112</v>
       </c>
-      <c t="s">
+      <c r="J43" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
         <v>213</v>
       </c>
-      <c t="s">
+      <c r="M43" t="s">
         <v>214</v>
       </c>
-      <c t="s">
+      <c r="N43" t="s">
         <v>187</v>
       </c>
-      <c t="s">
+      <c r="O43" t="s">
         <v>215</v>
       </c>
-      <c t="s">
+      <c r="P43" t="s">
         <v>188</v>
       </c>
-      <c t="s">
+      <c r="Q43" t="s">
         <v>189</v>
       </c>
-      <c t="s">
+      <c r="R43" t="s">
         <v>119</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T43" t="s">
         <v>120</v>
       </c>
-      <c t="s">
+      <c r="U43" t="s">
         <v>121</v>
       </c>
-      <c t="s">
+      <c r="V43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>216</v>
       </c>
-      <c t="s">
+      <c r="B44" t="s">
         <v>217</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
         <v>218</v>
       </c>
-      <c t="s">
+      <c r="E44" t="s">
         <v>219</v>
       </c>
-      <c t="s">
+      <c r="F44" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G44" t="s">
         <v>220</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J44" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
         <v>221</v>
       </c>
-      <c t="s">
+      <c r="M44" t="s">
         <v>222</v>
       </c>
-      <c t="s">
+      <c r="N44" t="s">
         <v>223</v>
       </c>
-      <c t="s">
+      <c r="O44" t="s">
         <v>224</v>
       </c>
-      <c t="s">
+      <c r="P44" t="s">
         <v>225</v>
       </c>
-      <c t="s">
+      <c r="Q44" t="s">
         <v>226</v>
       </c>
-      <c t="s">
+      <c r="R44" t="s">
         <v>58</v>
       </c>
-      <c t="s">
+      <c r="S44" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="T44" t="s">
         <v>60</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>216</v>
       </c>
-      <c t="s">
+      <c r="B45" t="s">
         <v>217</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
         <v>218</v>
       </c>
-      <c t="s">
+      <c r="E45" t="s">
         <v>219</v>
       </c>
-      <c t="s">
+      <c r="F45" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G45" t="s">
         <v>220</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J45" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
         <v>221</v>
       </c>
-      <c t="s">
+      <c r="M45" t="s">
         <v>222</v>
       </c>
-      <c t="s">
+      <c r="N45" t="s">
         <v>227</v>
       </c>
-      <c t="s">
+      <c r="O45" t="s">
         <v>224</v>
       </c>
-      <c t="s">
+      <c r="P45" t="s">
         <v>228</v>
       </c>
-      <c t="s">
+      <c r="Q45" t="s">
         <v>229</v>
       </c>
-      <c t="s">
+      <c r="R45" t="s">
         <v>58</v>
       </c>
-      <c t="s">
+      <c r="S45" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="T45" t="s">
         <v>60</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>216</v>
       </c>
-      <c t="s">
+      <c r="B46" t="s">
         <v>217</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
         <v>218</v>
       </c>
-      <c t="s">
+      <c r="E46" t="s">
         <v>219</v>
       </c>
-      <c t="s">
+      <c r="F46" t="s">
         <v>151</v>
       </c>
-      <c t="s">
+      <c r="G46" t="s">
         <v>220</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="s">
         <v>153</v>
       </c>
-      <c t="s">
+      <c r="J46" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
         <v>221</v>
       </c>
-      <c t="s">
+      <c r="M46" t="s">
         <v>222</v>
       </c>
-      <c t="s">
+      <c r="N46" t="s">
         <v>230</v>
       </c>
-      <c t="s">
+      <c r="O46" t="s">
         <v>224</v>
       </c>
-      <c t="s">
+      <c r="P46" t="s">
         <v>231</v>
       </c>
-      <c t="s">
+      <c r="Q46" t="s">
         <v>232</v>
       </c>
-      <c t="s">
+      <c r="R46" t="s">
         <v>58</v>
       </c>
-      <c t="s">
+      <c r="S46" t="s">
         <v>87</v>
       </c>
-      <c t="s">
+      <c r="T46" t="s">
         <v>60</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>233</v>
       </c>
-      <c t="s">
+      <c r="B47" t="s">
         <v>234</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
         <v>235</v>
       </c>
-      <c t="s">
+      <c r="E47" t="s">
         <v>236</v>
       </c>
-      <c t="s">
+      <c r="F47" t="s">
         <v>48</v>
       </c>
-      <c t="s">
+      <c r="G47" t="s">
         <v>237</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="s">
         <v>50</v>
       </c>
-      <c t="s">
+      <c r="J47" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
         <v>238</v>
       </c>
-      <c t="s">
+      <c r="M47" t="s">
         <v>239</v>
       </c>
-      <c t="s">
+      <c r="N47" t="s">
         <v>240</v>
       </c>
-      <c t="s">
+      <c r="O47" t="s">
         <v>241</v>
       </c>
-      <c t="s">
+      <c r="P47" t="s">
         <v>242</v>
       </c>
-      <c t="s">
+      <c r="Q47" t="s">
         <v>243</v>
       </c>
-      <c t="s">
+      <c r="R47" t="s">
         <v>244</v>
       </c>
-      <c t="s">
+      <c r="S47" t="s">
         <v>59</v>
       </c>
-      <c t="s">
+      <c r="T47" t="s">
         <v>245</v>
       </c>
-      <c t="s">
+      <c r="U47" t="s">
         <v>246</v>
       </c>
-      <c t="s">
+      <c r="V47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>247</v>
       </c>
-      <c t="s">
+      <c r="B48" t="s">
         <v>248</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
         <v>249</v>
       </c>
-      <c t="s">
+      <c r="E48" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F48" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G48" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J48" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
         <v>250</v>
       </c>
-      <c t="s">
+      <c r="M48" t="s">
         <v>251</v>
       </c>
-      <c t="s">
+      <c r="N48" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="O48" t="s">
         <v>252</v>
       </c>
-      <c t="s">
+      <c r="P48" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="Q48" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="R48" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T48" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>253</v>
       </c>
-      <c t="s">
+      <c r="B49" t="s">
         <v>254</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
         <v>255</v>
       </c>
-      <c t="s">
+      <c r="E49" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F49" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G49" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J49" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
         <v>239</v>
       </c>
-      <c t="s">
+      <c r="M49" t="s">
         <v>256</v>
       </c>
-      <c t="s">
+      <c r="N49" t="s">
         <v>141</v>
       </c>
-      <c t="s">
+      <c r="O49" t="s">
         <v>257</v>
       </c>
-      <c t="s">
+      <c r="P49" t="s">
         <v>142</v>
       </c>
-      <c t="s">
+      <c r="Q49" t="s">
         <v>143</v>
       </c>
-      <c t="s">
+      <c r="R49" t="s">
         <v>58</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T49" t="s">
         <v>60</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>258</v>
       </c>
-      <c t="s">
+      <c r="B50" t="s">
         <v>259</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
         <v>260</v>
       </c>
-      <c t="s">
+      <c r="E50" t="s">
         <v>261</v>
       </c>
-      <c t="s">
+      <c r="F50" t="s">
         <v>262</v>
       </c>
-      <c t="s">
+      <c r="G50" t="s">
         <v>263</v>
       </c>
-      <c t="s">
+      <c r="H50" t="s">
         <v>264</v>
       </c>
-      <c t="s">
+      <c r="I50" t="s">
         <v>265</v>
       </c>
-      <c t="s">
+      <c r="J50" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
         <v>266</v>
       </c>
-      <c t="s">
+      <c r="M50" t="s">
         <v>267</v>
       </c>
-      <c t="s">
+      <c r="N50" t="s">
         <v>131</v>
       </c>
-      <c t="s">
+      <c r="O50" t="s">
         <v>268</v>
       </c>
-      <c t="s">
+      <c r="P50" t="s">
         <v>133</v>
       </c>
-      <c t="s">
+      <c r="Q50" t="s">
         <v>134</v>
       </c>
-      <c t="s">
+      <c r="R50" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T50" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U50" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>269</v>
       </c>
-      <c t="s">
+      <c r="B51" t="s">
         <v>270</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
         <v>271</v>
       </c>
-      <c t="s">
+      <c r="E51" t="s">
         <v>272</v>
       </c>
-      <c t="s">
+      <c r="F51" t="s">
         <v>48</v>
       </c>
-      <c t="s">
+      <c r="G51" t="s">
         <v>273</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" t="s">
         <v>50</v>
       </c>
-      <c t="s">
+      <c r="J51" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
         <v>274</v>
       </c>
-      <c t="s">
+      <c r="M51" t="s">
         <v>275</v>
       </c>
-      <c t="s">
+      <c r="N51" t="s">
         <v>276</v>
       </c>
-      <c t="s">
+      <c r="O51" t="s">
         <v>277</v>
       </c>
-      <c t="s">
+      <c r="P51" t="s">
         <v>272</v>
       </c>
-      <c t="s">
+      <c r="Q51" t="s">
         <v>273</v>
       </c>
-      <c t="s">
+      <c r="R51" t="s">
         <v>58</v>
       </c>
-      <c t="s">
+      <c r="S51" t="s">
         <v>59</v>
       </c>
-      <c t="s">
+      <c r="T51" t="s">
         <v>60</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>278</v>
       </c>
-      <c t="s">
+      <c r="B52" t="s">
         <v>279</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
         <v>280</v>
       </c>
-      <c t="s">
+      <c r="E52" t="s">
         <v>281</v>
       </c>
-      <c t="s">
+      <c r="F52" t="s">
         <v>27</v>
       </c>
-      <c t="s">
+      <c r="G52" t="s">
         <v>282</v>
       </c>
-      <c t="s">
+      <c r="H52" t="s">
         <v>283</v>
       </c>
-      <c t="s">
+      <c r="I52" t="s">
         <v>30</v>
       </c>
-      <c t="s">
+      <c r="J52" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
         <v>284</v>
       </c>
-      <c t="s">
+      <c r="M52" t="s">
         <v>285</v>
       </c>
-      <c t="s">
+      <c r="N52" t="s">
         <v>41</v>
       </c>
-      <c t="s">
+      <c r="O52" t="s">
         <v>286</v>
       </c>
-      <c t="s">
+      <c r="P52" t="s">
         <v>42</v>
       </c>
-      <c t="s">
+      <c r="Q52" t="s">
         <v>43</v>
       </c>
-      <c t="s">
+      <c r="R52" t="s">
         <v>38</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T52" t="s">
         <v>39</v>
       </c>
-      <c t="s">
+      <c r="U52" t="s">
         <v>39</v>
       </c>
-      <c t="s">
+      <c r="V52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>287</v>
       </c>
-      <c t="s">
+      <c r="B53" t="s">
         <v>288</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
         <v>289</v>
       </c>
-      <c t="s">
+      <c r="E53" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F53" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G53" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J53" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
         <v>290</v>
       </c>
-      <c t="s">
+      <c r="M53" t="s">
         <v>291</v>
       </c>
-      <c t="s">
+      <c r="N53" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="O53" t="s">
         <v>292</v>
       </c>
-      <c t="s">
+      <c r="P53" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="Q53" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="R53" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T53" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>287</v>
       </c>
-      <c t="s">
+      <c r="B54" t="s">
         <v>288</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
         <v>289</v>
       </c>
-      <c t="s">
+      <c r="E54" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F54" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G54" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J54" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
         <v>290</v>
       </c>
-      <c t="s">
+      <c r="M54" t="s">
         <v>291</v>
       </c>
-      <c t="s">
+      <c r="N54" t="s">
         <v>293</v>
       </c>
-      <c t="s">
+      <c r="O54" t="s">
         <v>292</v>
       </c>
-      <c t="s">
+      <c r="P54" t="s">
         <v>294</v>
       </c>
-      <c t="s">
+      <c r="Q54" t="s">
         <v>295</v>
       </c>
-      <c t="s">
+      <c r="R54" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T54" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V54" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>296</v>
       </c>
-      <c t="s">
+      <c r="B55" t="s">
         <v>297</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
         <v>298</v>
       </c>
-      <c t="s">
+      <c r="E55" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F55" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G55" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J55" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
         <v>299</v>
       </c>
-      <c t="s">
+      <c r="M55" t="s">
         <v>300</v>
       </c>
-      <c t="s">
+      <c r="N55" t="s">
         <v>293</v>
       </c>
-      <c t="s">
+      <c r="O55" t="s">
         <v>301</v>
       </c>
-      <c t="s">
+      <c r="P55" t="s">
         <v>294</v>
       </c>
-      <c t="s">
+      <c r="Q55" t="s">
         <v>295</v>
       </c>
-      <c t="s">
+      <c r="R55" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T55" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V55" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>296</v>
       </c>
-      <c t="s">
+      <c r="B56" t="s">
         <v>297</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
         <v>298</v>
       </c>
-      <c t="s">
+      <c r="E56" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F56" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G56" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J56" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
         <v>299</v>
       </c>
-      <c t="s">
+      <c r="M56" t="s">
         <v>300</v>
       </c>
-      <c t="s">
+      <c r="N56" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="O56" t="s">
         <v>301</v>
       </c>
-      <c t="s">
+      <c r="P56" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="Q56" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="R56" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T56" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>302</v>
       </c>
-      <c t="s">
+      <c r="B57" t="s">
         <v>303</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
         <v>304</v>
       </c>
-      <c t="s">
+      <c r="E57" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F57" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G57" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J57" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
         <v>305</v>
       </c>
-      <c t="s">
+      <c r="M57" t="s">
         <v>306</v>
       </c>
-      <c t="s">
+      <c r="N57" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="O57" t="s">
         <v>307</v>
       </c>
-      <c t="s">
+      <c r="P57" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="Q57" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="R57" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T57" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>302</v>
       </c>
-      <c t="s">
+      <c r="B58" t="s">
         <v>303</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
         <v>304</v>
       </c>
-      <c t="s">
+      <c r="E58" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F58" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G58" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J58" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
         <v>305</v>
       </c>
-      <c t="s">
+      <c r="M58" t="s">
         <v>306</v>
       </c>
-      <c t="s">
+      <c r="N58" t="s">
         <v>293</v>
       </c>
-      <c t="s">
+      <c r="O58" t="s">
         <v>307</v>
       </c>
-      <c t="s">
+      <c r="P58" t="s">
         <v>294</v>
       </c>
-      <c t="s">
+      <c r="Q58" t="s">
         <v>295</v>
       </c>
-      <c t="s">
+      <c r="R58" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T58" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>308</v>
       </c>
-      <c t="s">
+      <c r="B59" t="s">
         <v>309</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
         <v>310</v>
       </c>
-      <c t="s">
+      <c r="E59" t="s">
         <v>311</v>
       </c>
-      <c t="s">
+      <c r="F59" t="s">
         <v>312</v>
       </c>
-      <c t="s">
+      <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
         <v>314</v>
       </c>
-      <c t="s">
+      <c r="J59" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
         <v>315</v>
       </c>
-      <c t="s">
+      <c r="M59" t="s">
         <v>316</v>
       </c>
-      <c t="s">
+      <c r="N59" t="s">
         <v>131</v>
       </c>
-      <c t="s">
+      <c r="O59" t="s">
         <v>317</v>
       </c>
-      <c t="s">
+      <c r="P59" t="s">
         <v>133</v>
       </c>
-      <c t="s">
+      <c r="Q59" t="s">
         <v>134</v>
       </c>
-      <c t="s">
+      <c r="R59" t="s">
         <v>244</v>
       </c>
-      <c t="s">
+      <c r="S59" t="s">
         <v>318</v>
       </c>
-      <c t="s">
+      <c r="T59" t="s">
         <v>245</v>
       </c>
-      <c t="s">
+      <c r="U59" t="s">
         <v>246</v>
       </c>
-      <c t="s">
+      <c r="V59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>308</v>
       </c>
-      <c t="s">
+      <c r="B60" t="s">
         <v>309</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
         <v>310</v>
       </c>
-      <c t="s">
+      <c r="E60" t="s">
         <v>311</v>
       </c>
-      <c t="s">
+      <c r="F60" t="s">
         <v>312</v>
       </c>
-      <c t="s">
+      <c r="G60" t="s">
         <v>313</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" t="s">
         <v>314</v>
       </c>
-      <c t="s">
+      <c r="J60" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="s">
         <v>315</v>
       </c>
-      <c t="s">
+      <c r="M60" t="s">
         <v>316</v>
       </c>
-      <c t="s">
+      <c r="N60" t="s">
         <v>141</v>
       </c>
-      <c t="s">
+      <c r="O60" t="s">
         <v>317</v>
       </c>
-      <c t="s">
+      <c r="P60" t="s">
         <v>142</v>
       </c>
-      <c t="s">
+      <c r="Q60" t="s">
         <v>143</v>
       </c>
-      <c t="s">
+      <c r="R60" t="s">
         <v>244</v>
       </c>
-      <c t="s">
+      <c r="S60" t="s">
         <v>318</v>
       </c>
-      <c t="s">
+      <c r="T60" t="s">
         <v>245</v>
       </c>
-      <c t="s">
+      <c r="U60" t="s">
         <v>246</v>
       </c>
-      <c t="s">
+      <c r="V60" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>319</v>
       </c>
-      <c t="s">
+      <c r="B61" t="s">
         <v>320</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
         <v>289</v>
       </c>
-      <c t="s">
+      <c r="E61" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F61" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G61" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J61" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="s">
         <v>321</v>
       </c>
-      <c t="s">
+      <c r="M61" t="s">
         <v>322</v>
       </c>
-      <c t="s">
+      <c r="N61" t="s">
         <v>293</v>
       </c>
-      <c t="s">
+      <c r="O61" t="s">
         <v>323</v>
       </c>
-      <c t="s">
+      <c r="P61" t="s">
         <v>294</v>
       </c>
-      <c t="s">
+      <c r="Q61" t="s">
         <v>295</v>
       </c>
-      <c t="s">
+      <c r="R61" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T61" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V61" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>319</v>
       </c>
-      <c t="s">
+      <c r="B62" t="s">
         <v>320</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
         <v>289</v>
       </c>
-      <c t="s">
+      <c r="E62" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F62" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G62" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J62" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="s">
         <v>321</v>
       </c>
-      <c t="s">
+      <c r="M62" t="s">
         <v>322</v>
       </c>
-      <c t="s">
+      <c r="N62" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="O62" t="s">
         <v>323</v>
       </c>
-      <c t="s">
+      <c r="P62" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="Q62" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="R62" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T62" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>324</v>
       </c>
-      <c t="s">
+      <c r="B63" t="s">
         <v>325</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
         <v>326</v>
       </c>
-      <c t="s">
+      <c r="E63" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F63" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G63" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J63" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
         <v>327</v>
       </c>
-      <c t="s">
+      <c r="M63" t="s">
         <v>328</v>
       </c>
-      <c t="s">
+      <c r="N63" t="s">
         <v>293</v>
       </c>
-      <c t="s">
+      <c r="O63" t="s">
         <v>329</v>
       </c>
-      <c t="s">
+      <c r="P63" t="s">
         <v>294</v>
       </c>
-      <c t="s">
+      <c r="Q63" t="s">
         <v>295</v>
       </c>
-      <c t="s">
+      <c r="R63" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T63" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V63" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>324</v>
       </c>
-      <c t="s">
+      <c r="B64" t="s">
         <v>325</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
         <v>326</v>
       </c>
-      <c t="s">
+      <c r="E64" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F64" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G64" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J64" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
         <v>327</v>
       </c>
-      <c t="s">
+      <c r="M64" t="s">
         <v>328</v>
       </c>
-      <c t="s">
+      <c r="N64" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="O64" t="s">
         <v>329</v>
       </c>
-      <c t="s">
+      <c r="P64" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="Q64" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="R64" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T64" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V64" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>330</v>
       </c>
-      <c t="s">
+      <c r="B65" t="s">
         <v>331</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
         <v>326</v>
       </c>
-      <c t="s">
+      <c r="E65" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F65" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G65" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J65" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" t="s">
         <v>332</v>
       </c>
-      <c t="s">
+      <c r="M65" t="s">
         <v>333</v>
       </c>
-      <c t="s">
+      <c r="N65" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="O65" t="s">
         <v>334</v>
       </c>
-      <c t="s">
+      <c r="P65" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="Q65" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="R65" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T65" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V65" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>330</v>
       </c>
-      <c t="s">
+      <c r="B66" t="s">
         <v>331</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
         <v>326</v>
       </c>
-      <c t="s">
+      <c r="E66" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F66" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G66" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J66" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" t="s">
         <v>332</v>
       </c>
-      <c t="s">
+      <c r="M66" t="s">
         <v>333</v>
       </c>
-      <c t="s">
+      <c r="N66" t="s">
         <v>293</v>
       </c>
-      <c t="s">
+      <c r="O66" t="s">
         <v>334</v>
       </c>
-      <c t="s">
+      <c r="P66" t="s">
         <v>294</v>
       </c>
-      <c t="s">
+      <c r="Q66" t="s">
         <v>295</v>
       </c>
-      <c t="s">
+      <c r="R66" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T66" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>335</v>
       </c>
-      <c t="s">
+      <c r="B67" t="s">
         <v>336</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
         <v>326</v>
       </c>
-      <c t="s">
+      <c r="E67" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F67" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G67" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J67" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
         <v>337</v>
       </c>
-      <c t="s">
+      <c r="M67" t="s">
         <v>338</v>
       </c>
-      <c t="s">
+      <c r="N67" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="O67" t="s">
         <v>339</v>
       </c>
-      <c t="s">
+      <c r="P67" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="Q67" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="R67" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T67" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>335</v>
       </c>
-      <c t="s">
+      <c r="B68" t="s">
         <v>336</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
         <v>326</v>
       </c>
-      <c t="s">
+      <c r="E68" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F68" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G68" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J68" t="s">
         <v>31</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68" t="s">
         <v>337</v>
       </c>
-      <c t="s">
+      <c r="M68" t="s">
         <v>338</v>
       </c>
-      <c t="s">
+      <c r="N68" t="s">
         <v>293</v>
       </c>
-      <c t="s">
+      <c r="O68" t="s">
         <v>339</v>
       </c>
-      <c t="s">
+      <c r="P68" t="s">
         <v>294</v>
       </c>
-      <c t="s">
+      <c r="Q68" t="s">
         <v>295</v>
       </c>
-      <c t="s">
+      <c r="R68" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T68" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V68" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>340</v>
       </c>
-      <c t="s">
+      <c r="B69" t="s">
         <v>341</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
         <v>342</v>
       </c>
-      <c t="s">
+      <c r="E69" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F69" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G69" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J69" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
         <v>343</v>
       </c>
-      <c t="s">
+      <c r="M69" t="s">
         <v>344</v>
       </c>
-      <c t="s">
+      <c r="N69" t="s">
         <v>293</v>
       </c>
-      <c t="s">
+      <c r="O69" t="s">
         <v>345</v>
       </c>
-      <c t="s">
+      <c r="P69" t="s">
         <v>294</v>
       </c>
-      <c t="s">
+      <c r="Q69" t="s">
         <v>295</v>
       </c>
-      <c t="s">
+      <c r="R69" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T69" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>340</v>
       </c>
-      <c t="s">
+      <c r="B70" t="s">
         <v>341</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
         <v>342</v>
       </c>
-      <c t="s">
+      <c r="E70" t="s">
         <v>94</v>
       </c>
-      <c t="s">
+      <c r="F70" t="s">
         <v>95</v>
       </c>
-      <c t="s">
+      <c r="G70" t="s">
         <v>96</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" t="s">
         <v>97</v>
       </c>
-      <c t="s">
+      <c r="J70" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
         <v>343</v>
       </c>
-      <c t="s">
+      <c r="M70" t="s">
         <v>344</v>
       </c>
-      <c t="s">
+      <c r="N70" t="s">
         <v>100</v>
       </c>
-      <c t="s">
+      <c r="O70" t="s">
         <v>345</v>
       </c>
-      <c t="s">
+      <c r="P70" t="s">
         <v>102</v>
       </c>
-      <c t="s">
+      <c r="Q70" t="s">
         <v>103</v>
       </c>
-      <c t="s">
+      <c r="R70" t="s">
         <v>104</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T70" t="s">
         <v>105</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="V70" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>346</v>
       </c>
-      <c t="s">
+      <c r="B71" t="s">
         <v>347</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
         <v>348</v>
       </c>
-      <c t="s">
+      <c r="E71" t="s">
         <v>349</v>
       </c>
-      <c t="s">
+      <c r="F71" t="s">
         <v>350</v>
       </c>
-      <c t="s">
+      <c r="G71" t="s">
         <v>351</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71" t="s">
         <v>352</v>
       </c>
-      <c t="s">
+      <c r="J71" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
         <v>353</v>
       </c>
-      <c t="s">
+      <c r="M71" t="s">
         <v>354</v>
       </c>
-      <c t="s">
+      <c r="N71" t="s">
         <v>163</v>
       </c>
-      <c t="s">
+      <c r="O71" t="s">
         <v>355</v>
       </c>
-      <c t="s">
+      <c r="P71" t="s">
         <v>164</v>
       </c>
-      <c t="s">
+      <c r="Q71" t="s">
         <v>165</v>
       </c>
-      <c t="s">
+      <c r="R71" t="s">
         <v>135</v>
       </c>
-      <c t="s">
+      <c r="S71" t="s">
         <v>356</v>
       </c>
-      <c t="s">
+      <c r="T71" t="s">
         <v>136</v>
       </c>
-      <c t="s">
+      <c r="U71" t="s">
         <v>137</v>
       </c>
-      <c t="s">
+      <c r="V71" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>357</v>
       </c>
-      <c t="s">
+      <c r="B72" t="s">
         <v>358</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
         <v>359</v>
       </c>
-      <c t="s">
+      <c r="E72" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F72" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G72" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I72" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J72" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
         <v>360</v>
       </c>
-      <c t="s">
+      <c r="M72" t="s">
         <v>361</v>
       </c>
-      <c t="s">
+      <c r="N72" t="s">
         <v>131</v>
       </c>
-      <c t="s">
+      <c r="O72" t="s">
         <v>362</v>
       </c>
-      <c t="s">
+      <c r="P72" t="s">
         <v>133</v>
       </c>
-      <c t="s">
+      <c r="Q72" t="s">
         <v>134</v>
       </c>
-      <c t="s">
+      <c r="R72" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T72" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U72" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V72" t="s">
         <v>40</v>
       </c>
     </row>
-    <row>
-      <c t="s">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>357</v>
       </c>
-      <c t="s">
+      <c r="B73" t="s">
         <v>358</v>
       </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" t="s">
         <v>359</v>
       </c>
-      <c t="s">
+      <c r="E73" t="s">
         <v>125</v>
       </c>
-      <c t="s">
+      <c r="F73" t="s">
         <v>126</v>
       </c>
-      <c t="s">
+      <c r="G73" t="s">
         <v>127</v>
       </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
         <v>128</v>
       </c>
-      <c t="s">
+      <c r="J73" t="s">
         <v>51</v>
       </c>
-      <c t="n">
-        <v>0</v>
-      </c>
-      <c t="s">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
         <v>360</v>
       </c>
-      <c t="s">
+      <c r="M73" t="s">
         <v>361</v>
       </c>
-      <c t="s">
+      <c r="N73" t="s">
         <v>138</v>
       </c>
-      <c t="s">
+      <c r="O73" t="s">
         <v>362</v>
       </c>
-      <c t="s">
+      <c r="P73" t="s">
         <v>139</v>
       </c>
-      <c t="s">
+      <c r="Q73" t="s">
         <v>140</v>
       </c>
-      <c t="s">
+      <c r="R73" t="s">
         <v>157</v>
       </c>
-      <c/>
-      <c t="s">
+      <c r="T73" t="s">
         <v>158</v>
       </c>
-      <c t="s">
+      <c r="U73" t="s">
         <v>159</v>
       </c>
-      <c t="s">
+      <c r="V73" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>357</v>
+      </c>
+      <c r="B74" t="s">
+        <v>358</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" t="s">
+        <v>125</v>
+      </c>
+      <c r="F74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" t="s">
+        <v>128</v>
+      </c>
+      <c r="J74" t="s">
+        <v>51</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="M74" t="s">
+        <v>361</v>
+      </c>
+      <c r="N74" t="s">
+        <v>131</v>
+      </c>
+      <c r="O74" t="s">
+        <v>364</v>
+      </c>
+      <c r="P74" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>134</v>
+      </c>
+      <c r="R74" t="s">
+        <v>157</v>
+      </c>
+      <c r="T74" t="s">
+        <v>158</v>
+      </c>
+      <c r="U74" t="s">
+        <v>159</v>
+      </c>
+      <c r="V74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>357</v>
+      </c>
+      <c r="B75" t="s">
+        <v>358</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" t="s">
+        <v>359</v>
+      </c>
+      <c r="E75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s">
+        <v>128</v>
+      </c>
+      <c r="J75" t="s">
+        <v>51</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="M75" t="s">
+        <v>361</v>
+      </c>
+      <c r="N75" t="s">
+        <v>138</v>
+      </c>
+      <c r="O75" t="s">
+        <v>364</v>
+      </c>
+      <c r="P75" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>140</v>
+      </c>
+      <c r="R75" t="s">
+        <v>157</v>
+      </c>
+      <c r="T75" t="s">
+        <v>158</v>
+      </c>
+      <c r="U75" t="s">
+        <v>159</v>
+      </c>
+      <c r="V75" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row>
-      <c t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>363</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>